--- a/data/support_tourist_folder_2/Alemania.xlsx
+++ b/data/support_tourist_folder_2/Alemania.xlsx
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43806</v>
+        <v>43807</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43745</v>
+        <v>43746</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1006,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43715</v>
+        <v>43716</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43653</v>
+        <v>43654</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1057,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43623</v>
+        <v>43624</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1091,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43562</v>
+        <v>43563</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1108,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43531</v>
+        <v>43532</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1142,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>43472</v>
+        <v>43473</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1176,7 +1176,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>43411</v>
+        <v>43412</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1193,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1210,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1227,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1244,7 +1244,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1261,7 +1261,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1278,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>43227</v>
+        <v>43228</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1295,7 +1295,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>43197</v>
+        <v>43198</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1312,7 +1312,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1329,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>43107</v>
+        <v>43108</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1363,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1380,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1397,7 +1397,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>43015</v>
+        <v>43016</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>42985</v>
+        <v>42986</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1431,7 +1431,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>42923</v>
+        <v>42924</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1465,7 +1465,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1482,7 +1482,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>42862</v>
+        <v>42863</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1499,7 +1499,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>42832</v>
+        <v>42833</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1516,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1533,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -1550,7 +1550,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>42742</v>
+        <v>42743</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -1567,7 +1567,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>42711</v>
+        <v>42712</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -1584,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -1601,7 +1601,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>42650</v>
+        <v>42651</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -1618,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>42620</v>
+        <v>42621</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -1635,7 +1635,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>42589</v>
+        <v>42590</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -1652,7 +1652,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>42558</v>
+        <v>42559</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -1669,7 +1669,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>42528</v>
+        <v>42529</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -1686,7 +1686,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>42497</v>
+        <v>42498</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -1703,7 +1703,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1720,7 +1720,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -1737,7 +1737,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>42407</v>
+        <v>42408</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -1754,7 +1754,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>42376</v>
+        <v>42377</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -1771,7 +1771,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
@@ -1788,7 +1788,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>42315</v>
+        <v>42316</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
@@ -1805,7 +1805,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>42284</v>
+        <v>42285</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -1822,7 +1822,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
@@ -1839,7 +1839,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>42223</v>
+        <v>42224</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
@@ -1856,7 +1856,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>42192</v>
+        <v>42193</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -1873,7 +1873,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>42162</v>
+        <v>42163</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -1890,7 +1890,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
@@ -1907,7 +1907,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>42101</v>
+        <v>42102</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
@@ -1924,7 +1924,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>42070</v>
+        <v>42071</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
@@ -1941,7 +1941,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>42042</v>
+        <v>42043</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
@@ -1958,7 +1958,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -1975,7 +1975,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>41980</v>
+        <v>41981</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
@@ -1992,7 +1992,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>41950</v>
+        <v>41951</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
@@ -2009,7 +2009,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
@@ -2026,7 +2026,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>41889</v>
+        <v>41890</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
@@ -2043,7 +2043,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -2060,7 +2060,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -2077,7 +2077,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>41797</v>
+        <v>41798</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
@@ -2094,7 +2094,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
@@ -2111,7 +2111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -2128,7 +2128,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>41705</v>
+        <v>41706</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -2145,7 +2145,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>41677</v>
+        <v>41678</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
@@ -2162,7 +2162,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
@@ -2179,7 +2179,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>41615</v>
+        <v>41616</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
@@ -2196,7 +2196,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>41585</v>
+        <v>41586</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
@@ -2213,7 +2213,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>41554</v>
+        <v>41555</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
@@ -2230,7 +2230,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>41524</v>
+        <v>41525</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
@@ -2247,7 +2247,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>41493</v>
+        <v>41494</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
@@ -2264,7 +2264,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>41462</v>
+        <v>41463</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -2281,7 +2281,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>41432</v>
+        <v>41433</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
@@ -2298,7 +2298,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>41401</v>
+        <v>41402</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
@@ -2315,7 +2315,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>41371</v>
+        <v>41372</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
@@ -2332,7 +2332,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>41340</v>
+        <v>41341</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
@@ -2349,7 +2349,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>41312</v>
+        <v>41313</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
@@ -2366,7 +2366,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>41281</v>
+        <v>41282</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -2383,7 +2383,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>41250</v>
+        <v>41251</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -2400,7 +2400,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>41220</v>
+        <v>41221</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -2417,7 +2417,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>41189</v>
+        <v>41190</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
@@ -2434,7 +2434,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>41159</v>
+        <v>41160</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
@@ -2451,7 +2451,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>41128</v>
+        <v>41129</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
@@ -2468,7 +2468,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>41097</v>
+        <v>41098</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
@@ -2485,7 +2485,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>41067</v>
+        <v>41068</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
@@ -2502,7 +2502,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>41036</v>
+        <v>41037</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
@@ -2519,7 +2519,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>41006</v>
+        <v>41007</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
@@ -2536,7 +2536,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>40975</v>
+        <v>40976</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
@@ -2553,7 +2553,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>40946</v>
+        <v>40947</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -2570,7 +2570,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>40915</v>
+        <v>40916</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
@@ -2587,7 +2587,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>40884</v>
+        <v>40885</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
@@ -2604,7 +2604,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>40854</v>
+        <v>40855</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
@@ -2621,7 +2621,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>40823</v>
+        <v>40824</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
@@ -2638,7 +2638,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>40793</v>
+        <v>40794</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -2655,7 +2655,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>40762</v>
+        <v>40763</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
@@ -2672,7 +2672,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>40731</v>
+        <v>40732</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
@@ -2689,7 +2689,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>40701</v>
+        <v>40702</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
@@ -2706,7 +2706,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>40670</v>
+        <v>40671</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
@@ -2723,7 +2723,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>40640</v>
+        <v>40641</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
@@ -2740,7 +2740,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>40609</v>
+        <v>40610</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
@@ -2757,7 +2757,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>40581</v>
+        <v>40582</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
@@ -2774,7 +2774,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>40550</v>
+        <v>40551</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
@@ -2791,7 +2791,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>40519</v>
+        <v>40520</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
@@ -2808,7 +2808,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>40489</v>
+        <v>40490</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
@@ -2825,7 +2825,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>40458</v>
+        <v>40459</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
@@ -2842,7 +2842,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>40428</v>
+        <v>40429</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
@@ -2859,7 +2859,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>40397</v>
+        <v>40398</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
@@ -2876,7 +2876,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>40366</v>
+        <v>40367</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
@@ -2893,7 +2893,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>40336</v>
+        <v>40337</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
@@ -2910,7 +2910,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>40305</v>
+        <v>40306</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
@@ -2927,7 +2927,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>40275</v>
+        <v>40276</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
@@ -2944,7 +2944,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>40244</v>
+        <v>40245</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
@@ -2961,7 +2961,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>40216</v>
+        <v>40217</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
@@ -2978,7 +2978,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>40185</v>
+        <v>40186</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
@@ -2995,7 +2995,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>40154</v>
+        <v>40155</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
@@ -3012,7 +3012,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>40124</v>
+        <v>40125</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
@@ -3029,7 +3029,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>40093</v>
+        <v>40094</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
@@ -3046,7 +3046,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>40063</v>
+        <v>40064</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
@@ -3063,7 +3063,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>40032</v>
+        <v>40033</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
@@ -3080,7 +3080,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>40001</v>
+        <v>40002</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
@@ -3097,7 +3097,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>39971</v>
+        <v>39972</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
@@ -3114,7 +3114,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>39940</v>
+        <v>39941</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>
@@ -3131,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>39910</v>
+        <v>39911</v>
       </c>
       <c r="C130" t="s">
         <v>132</v>
@@ -3148,7 +3148,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>39879</v>
+        <v>39880</v>
       </c>
       <c r="C131" t="s">
         <v>133</v>
@@ -3165,7 +3165,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>39851</v>
+        <v>39852</v>
       </c>
       <c r="C132" t="s">
         <v>134</v>
@@ -3182,7 +3182,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>39820</v>
+        <v>39821</v>
       </c>
       <c r="C133" t="s">
         <v>135</v>
@@ -3199,7 +3199,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>39789</v>
+        <v>39790</v>
       </c>
       <c r="C134" t="s">
         <v>136</v>
@@ -3216,7 +3216,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>39759</v>
+        <v>39760</v>
       </c>
       <c r="C135" t="s">
         <v>137</v>
@@ -3233,7 +3233,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>39728</v>
+        <v>39729</v>
       </c>
       <c r="C136" t="s">
         <v>138</v>
@@ -3250,7 +3250,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>39698</v>
+        <v>39699</v>
       </c>
       <c r="C137" t="s">
         <v>139</v>
@@ -3267,7 +3267,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>39667</v>
+        <v>39668</v>
       </c>
       <c r="C138" t="s">
         <v>140</v>
@@ -3284,7 +3284,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>39636</v>
+        <v>39637</v>
       </c>
       <c r="C139" t="s">
         <v>141</v>
@@ -3301,7 +3301,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>39606</v>
+        <v>39607</v>
       </c>
       <c r="C140" t="s">
         <v>142</v>
@@ -3318,7 +3318,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>39575</v>
+        <v>39576</v>
       </c>
       <c r="C141" t="s">
         <v>143</v>
@@ -3335,7 +3335,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>39545</v>
+        <v>39546</v>
       </c>
       <c r="C142" t="s">
         <v>144</v>
@@ -3352,7 +3352,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>39514</v>
+        <v>39515</v>
       </c>
       <c r="C143" t="s">
         <v>145</v>
@@ -3369,7 +3369,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>39485</v>
+        <v>39486</v>
       </c>
       <c r="C144" t="s">
         <v>146</v>
@@ -3386,7 +3386,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>39454</v>
+        <v>39455</v>
       </c>
       <c r="C145" t="s">
         <v>147</v>
@@ -3403,7 +3403,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>39423</v>
+        <v>39424</v>
       </c>
       <c r="C146" t="s">
         <v>148</v>
@@ -3420,7 +3420,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>39393</v>
+        <v>39394</v>
       </c>
       <c r="C147" t="s">
         <v>149</v>
@@ -3437,7 +3437,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>39362</v>
+        <v>39363</v>
       </c>
       <c r="C148" t="s">
         <v>150</v>
@@ -3454,7 +3454,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>39332</v>
+        <v>39333</v>
       </c>
       <c r="C149" t="s">
         <v>151</v>
@@ -3471,7 +3471,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>39301</v>
+        <v>39302</v>
       </c>
       <c r="C150" t="s">
         <v>152</v>
@@ -3488,7 +3488,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>39270</v>
+        <v>39271</v>
       </c>
       <c r="C151" t="s">
         <v>153</v>
@@ -3505,7 +3505,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>39240</v>
+        <v>39241</v>
       </c>
       <c r="C152" t="s">
         <v>154</v>
@@ -3522,7 +3522,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>39209</v>
+        <v>39210</v>
       </c>
       <c r="C153" t="s">
         <v>155</v>
@@ -3539,7 +3539,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>39179</v>
+        <v>39180</v>
       </c>
       <c r="C154" t="s">
         <v>156</v>
@@ -3556,7 +3556,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>39148</v>
+        <v>39149</v>
       </c>
       <c r="C155" t="s">
         <v>157</v>
@@ -3573,7 +3573,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>39120</v>
+        <v>39121</v>
       </c>
       <c r="C156" t="s">
         <v>158</v>
@@ -3590,7 +3590,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>39089</v>
+        <v>39090</v>
       </c>
       <c r="C157" t="s">
         <v>159</v>
@@ -3607,7 +3607,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>39058</v>
+        <v>39059</v>
       </c>
       <c r="C158" t="s">
         <v>160</v>
@@ -3624,7 +3624,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>39028</v>
+        <v>39029</v>
       </c>
       <c r="C159" t="s">
         <v>161</v>
@@ -3641,7 +3641,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>38997</v>
+        <v>38998</v>
       </c>
       <c r="C160" t="s">
         <v>162</v>
@@ -3658,7 +3658,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>38967</v>
+        <v>38968</v>
       </c>
       <c r="C161" t="s">
         <v>163</v>
@@ -3675,7 +3675,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>38936</v>
+        <v>38937</v>
       </c>
       <c r="C162" t="s">
         <v>164</v>
@@ -3692,7 +3692,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>38905</v>
+        <v>38906</v>
       </c>
       <c r="C163" t="s">
         <v>165</v>
@@ -3709,7 +3709,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>38875</v>
+        <v>38876</v>
       </c>
       <c r="C164" t="s">
         <v>166</v>
@@ -3726,7 +3726,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>38844</v>
+        <v>38845</v>
       </c>
       <c r="C165" t="s">
         <v>167</v>
@@ -3743,7 +3743,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>38814</v>
+        <v>38815</v>
       </c>
       <c r="C166" t="s">
         <v>168</v>
@@ -3760,7 +3760,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>38783</v>
+        <v>38784</v>
       </c>
       <c r="C167" t="s">
         <v>169</v>
@@ -3777,7 +3777,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>38755</v>
+        <v>38756</v>
       </c>
       <c r="C168" t="s">
         <v>170</v>
@@ -3794,7 +3794,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>38724</v>
+        <v>38725</v>
       </c>
       <c r="C169" t="s">
         <v>171</v>
@@ -3811,7 +3811,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>38693</v>
+        <v>38694</v>
       </c>
       <c r="C170" t="s">
         <v>172</v>
@@ -3828,7 +3828,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>38663</v>
+        <v>38664</v>
       </c>
       <c r="C171" t="s">
         <v>173</v>
@@ -3845,7 +3845,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>38632</v>
+        <v>38633</v>
       </c>
       <c r="C172" t="s">
         <v>174</v>
@@ -3862,7 +3862,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>38602</v>
+        <v>38603</v>
       </c>
       <c r="C173" t="s">
         <v>175</v>
@@ -3879,7 +3879,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>38571</v>
+        <v>38572</v>
       </c>
       <c r="C174" t="s">
         <v>176</v>
@@ -3896,7 +3896,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>38540</v>
+        <v>38541</v>
       </c>
       <c r="C175" t="s">
         <v>177</v>
@@ -3913,7 +3913,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>38510</v>
+        <v>38511</v>
       </c>
       <c r="C176" t="s">
         <v>178</v>
@@ -3930,7 +3930,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>38479</v>
+        <v>38480</v>
       </c>
       <c r="C177" t="s">
         <v>179</v>
@@ -3947,7 +3947,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>38449</v>
+        <v>38450</v>
       </c>
       <c r="C178" t="s">
         <v>180</v>
@@ -3964,7 +3964,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>38418</v>
+        <v>38419</v>
       </c>
       <c r="C179" t="s">
         <v>181</v>
@@ -3981,7 +3981,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>38390</v>
+        <v>38391</v>
       </c>
       <c r="C180" t="s">
         <v>182</v>
@@ -3998,7 +3998,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>38359</v>
+        <v>38360</v>
       </c>
       <c r="C181" t="s">
         <v>183</v>
